--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gefeng/MediaSpider/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2C5ED1-B83C-F448-BDEF-3CCA7A134FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5F3CA3-2BA0-9542-B294-A8DEB6CDE815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9DA2AEF5-FE0C-0840-A132-4EA97B1EC157}"/>
   </bookViews>
@@ -502,7 +502,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
